--- a/biology/Botanique/Saxifraga_hieraciifolia/Saxifraga_hieraciifolia.xlsx
+++ b/biology/Botanique/Saxifraga_hieraciifolia/Saxifraga_hieraciifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Micranthes hieraciifolia, la Saxifrage à feuilles d'Épervière, est une espèce de plantes à fleurs de la famille des Saxifragaceae. C'est une espèce plutôt rare que l'on rencontre dans les régions arctiques et dans certaines zones alpines, comme les montagnes de Norvège et les Carpates, ainsi que dans quelques stations isolées du Massif central (Cantal) et du milieu des Alpes autrichiennes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Micranthes hieraciifolia mesure de 10 à 20 cm de hauteur avec des feuilles oblongues et finement dentées. Elle ne possède qu'une seule tige. Ses fleurs en grappes denses sont de couleur verdâtre.
 </t>
@@ -542,9 +556,11 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce indicatrice des falaises siliceuses montagnardes et subalpines du Massif central[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce indicatrice des falaises siliceuses montagnardes et subalpines du Massif central.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée en danger critique d'extinction sur la Liste rouge de la flore vasculaire de France métropolitaine et sur la Liste rouge de la flore vasculaire de la région Auvergne[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée en danger critique d'extinction sur la Liste rouge de la flore vasculaire de France métropolitaine et sur la Liste rouge de la flore vasculaire de la région Auvergne.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Micranthes hieraciifolia a pour synonymes[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Micranthes hieraciifolia a pour synonymes :
 Evaiezoa hieraciifolia (Waldst. &amp; Kit. ex Willd.) Raf.
 Micranthes hieraciifolia subsp. longifolia (Engl. &amp; Irmsch.) Elven &amp; D.F.Murray
 Robertsonia hieraciifolia (Waldst. &amp; Kit. ex Willd.) Link
